--- a/SIMULADOR DE INVESTIMENTOS FII.xlsx
+++ b/SIMULADOR DE INVESTIMENTOS FII.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rapz/Documents/Aulas Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5DD0C8-1DB0-5444-B676-CF384D558C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCAAF40-D40F-5D49-97AC-519C584A0B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{9445D2A3-2BF5-E44E-81C2-D1715A9032F3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{9445D2A3-2BF5-E44E-81C2-D1715A9032F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,63 +586,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -666,15 +609,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -690,6 +626,63 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,6 +797,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-73E2-584E-8409-52945DC0265A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -831,6 +829,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-73E2-584E-8409-52945DC0265A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -858,6 +861,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-73E2-584E-8409-52945DC0265A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -885,6 +893,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-73E2-584E-8409-52945DC0265A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -912,6 +925,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-73E2-584E-8409-52945DC0265A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2062,7 +2080,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="16"/>
@@ -2078,100 +2096,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="81" customHeight="1">
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="8" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:6" ht="23" thickBot="1">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="4">
-        <v>9000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="9">
         <f>SALARIO*30%</f>
-        <v>2700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1"/>
     <row r="8" spans="1:6" ht="35" customHeight="1" thickBot="1">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="6">
         <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" thickBot="1">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="8">
         <v>1.0789999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="10">
         <f>FV(TAXA_MENSAL,QTD_ANOS*12,APORTE*-1)</f>
         <v>851494.74385560269</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1">
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="11">
         <f>PATRIMONIO*REND_CARTEIRA</f>
         <v>5108.9684631336158</v>
@@ -2179,10 +2197,10 @@
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1"/>
     <row r="15" spans="1:6" ht="24">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2268,121 +2286,121 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="42"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="25">
         <f>SUG_INVESTIMENTO</f>
-        <v>2700</v>
-      </c>
-      <c r="D24" s="43"/>
+        <v>1500</v>
+      </c>
+      <c r="D24" s="24"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="26">
         <f>VLOOKUP($C$23&amp;"-"&amp;B27,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.3</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="27">
         <f>C27*$C$24</f>
-        <v>810</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="26">
         <f>VLOOKUP($C$23&amp;"-"&amp;B28,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="27">
         <f t="shared" ref="D28:D32" si="0">C28*$C$24</f>
-        <v>1350</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="26">
         <f>VLOOKUP($C$23&amp;"-"&amp;B29,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="27">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="26">
         <f>VLOOKUP($C$23&amp;"-"&amp;B30,Planilha2!$A:$D,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="27">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="26">
         <f>VLOOKUP($C$23&amp;"-"&amp;B31,Planilha2!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="26">
         <f>VLOOKUP($C$23&amp;"-"&amp;B32,Planilha2!$A:$D,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="57" t="s">
+      <c r="B33" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="47">
+      <c r="C33" s="24"/>
+      <c r="D33" s="28">
         <f>SUM(D27:D32)</f>
-        <v>2700</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -2444,10 +2462,10 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="34">
         <f>VLOOKUP(G3,$A:$D,4,FALSE)</f>
         <v>0.35</v>
       </c>
@@ -2460,10 +2478,10 @@
       <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="37">
         <v>0.3</v>
       </c>
     </row>
@@ -2475,10 +2493,10 @@
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="37">
         <v>0.5</v>
       </c>
     </row>
@@ -2490,10 +2508,10 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="37">
         <v>0.1</v>
       </c>
     </row>
@@ -2505,10 +2523,10 @@
       <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="59">
+      <c r="D7" s="37">
         <v>0.1</v>
       </c>
     </row>
@@ -2520,41 +2538,41 @@
       <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="59">
+      <c r="D8" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1">
-      <c r="A9" s="51" t="str">
+      <c r="A9" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Hotelarias</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="38">
         <v>0</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="49" t="str">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Papel</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="26">
         <v>0.32</v>
       </c>
     </row>
@@ -2566,10 +2584,10 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="26">
         <v>0.35</v>
       </c>
     </row>
@@ -2581,10 +2599,10 @@
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="26">
         <v>0.08</v>
       </c>
     </row>
@@ -2596,10 +2614,10 @@
       <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="26">
         <v>0.05</v>
       </c>
     </row>
@@ -2611,28 +2629,28 @@
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="26">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1">
-      <c r="A15" s="51" t="str">
+      <c r="A15" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Hotelarias</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="32">
         <v>0.1</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="str">
@@ -2642,10 +2660,10 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="26">
         <v>0.5</v>
       </c>
     </row>
@@ -2657,10 +2675,10 @@
       <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="26">
         <v>0.1</v>
       </c>
     </row>
@@ -2672,10 +2690,10 @@
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="26">
         <v>0.05</v>
       </c>
     </row>
@@ -2687,10 +2705,10 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="45">
+      <c r="D19" s="26">
         <v>0.05</v>
       </c>
     </row>
@@ -2702,28 +2720,28 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="26">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" thickBot="1">
-      <c r="A21" s="51" t="str">
+      <c r="A21" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Agressivo-Hotelarias</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="32">
         <v>0.1</v>
       </c>
-      <c r="E21" s="51"/>
+      <c r="E21" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
